--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N2">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O2">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P2">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q2">
-        <v>51.39165675806844</v>
+        <v>134.6343801261278</v>
       </c>
       <c r="R2">
-        <v>462.524910822616</v>
+        <v>1211.70942113515</v>
       </c>
       <c r="S2">
-        <v>0.002315011632008984</v>
+        <v>0.007987959872927095</v>
       </c>
       <c r="T2">
-        <v>0.002315011632008984</v>
+        <v>0.007987959872927093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q3">
-        <v>71.44038936649422</v>
+        <v>118.7571246958155</v>
       </c>
       <c r="R3">
-        <v>642.963504298448</v>
+        <v>1068.81412226234</v>
       </c>
       <c r="S3">
-        <v>0.003218135837831687</v>
+        <v>0.00704595026772273</v>
       </c>
       <c r="T3">
-        <v>0.003218135837831687</v>
+        <v>0.007045950267722729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N4">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q4">
-        <v>167.28302330474</v>
+        <v>40.73812220074</v>
       </c>
       <c r="R4">
-        <v>1505.54720974266</v>
+        <v>366.64309980666</v>
       </c>
       <c r="S4">
-        <v>0.007535506134997355</v>
+        <v>0.002417023683943563</v>
       </c>
       <c r="T4">
-        <v>0.007535506134997355</v>
+        <v>0.002417023683943563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N5">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O5">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P5">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q5">
-        <v>7.285287831199112</v>
+        <v>8.097615693778334</v>
       </c>
       <c r="R5">
-        <v>65.56759048079201</v>
+        <v>72.87854124400501</v>
       </c>
       <c r="S5">
-        <v>0.0003281763448716134</v>
+        <v>0.0004804376799424446</v>
       </c>
       <c r="T5">
-        <v>0.0003281763448716133</v>
+        <v>0.0004804376799424446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N6">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O6">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P6">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q6">
-        <v>12.51716014837467</v>
+        <v>21.52824596605111</v>
       </c>
       <c r="R6">
-        <v>112.654441335372</v>
+        <v>193.75421369446</v>
       </c>
       <c r="S6">
-        <v>0.0005638536130411331</v>
+        <v>0.001277287159121017</v>
       </c>
       <c r="T6">
-        <v>0.0005638536130411331</v>
+        <v>0.001277287159121016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N7">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q7">
-        <v>233.7216887062382</v>
+        <v>109.7181420590017</v>
       </c>
       <c r="R7">
-        <v>2103.495198356144</v>
+        <v>987.4632785310149</v>
       </c>
       <c r="S7">
-        <v>0.01052833207060944</v>
+        <v>0.006509660573163932</v>
       </c>
       <c r="T7">
-        <v>0.01052833207060944</v>
+        <v>0.006509660573163931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N8">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O8">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P8">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q8">
-        <v>1375.348499842077</v>
+        <v>2167.505725733608</v>
       </c>
       <c r="R8">
-        <v>12378.13649857869</v>
+        <v>19507.55153160247</v>
       </c>
       <c r="S8">
-        <v>0.06195456570293656</v>
+        <v>0.1285997584367364</v>
       </c>
       <c r="T8">
-        <v>0.06195456570293655</v>
+        <v>0.1285997584367364</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q9">
         <v>1911.894625345303</v>
@@ -1013,10 +1013,10 @@
         <v>17207.05162810773</v>
       </c>
       <c r="S9">
-        <v>0.08612406324407802</v>
+        <v>0.1134341580079031</v>
       </c>
       <c r="T9">
-        <v>0.08612406324407802</v>
+        <v>0.1134341580079031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N10">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q10">
-        <v>4476.844485366784</v>
+        <v>655.851150672052</v>
       </c>
       <c r="R10">
-        <v>40291.60036830106</v>
+        <v>5902.660356048468</v>
       </c>
       <c r="S10">
-        <v>0.2016659456438374</v>
+        <v>0.03891214613439382</v>
       </c>
       <c r="T10">
-        <v>0.2016659456438374</v>
+        <v>0.03891214613439382</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N11">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O11">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P11">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q11">
-        <v>194.9695791425198</v>
+        <v>130.3651293570943</v>
       </c>
       <c r="R11">
-        <v>1754.726212282678</v>
+        <v>1173.286164213849</v>
       </c>
       <c r="S11">
-        <v>0.008782687153435016</v>
+        <v>0.007734661987212057</v>
       </c>
       <c r="T11">
-        <v>0.008782687153435014</v>
+        <v>0.007734661987212059</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N12">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O12">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P12">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q12">
-        <v>334.9854532496136</v>
+        <v>346.5875235783231</v>
       </c>
       <c r="R12">
-        <v>3014.869079246523</v>
+        <v>3119.287712204908</v>
       </c>
       <c r="S12">
-        <v>0.01508990504971228</v>
+        <v>0.02056330060870941</v>
       </c>
       <c r="T12">
-        <v>0.01508990504971228</v>
+        <v>0.02056330060870941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N13">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q13">
-        <v>6254.882489115599</v>
+        <v>1766.37424190575</v>
       </c>
       <c r="R13">
-        <v>56293.9424020404</v>
+        <v>15897.36817715175</v>
       </c>
       <c r="S13">
-        <v>0.281760243444157</v>
+        <v>0.1048003233029848</v>
       </c>
       <c r="T13">
-        <v>0.281760243444157</v>
+        <v>0.1048003233029848</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N14">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O14">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P14">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q14">
-        <v>296.0649964248262</v>
+        <v>1725.589419738481</v>
       </c>
       <c r="R14">
-        <v>2664.584967823436</v>
+        <v>15530.30477764633</v>
       </c>
       <c r="S14">
-        <v>0.01333667668627097</v>
+        <v>0.1023805288746122</v>
       </c>
       <c r="T14">
-        <v>0.01333667668627096</v>
+        <v>0.1023805288746122</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q15">
-        <v>411.5648328278231</v>
+        <v>1522.092928282394</v>
       </c>
       <c r="R15">
-        <v>3704.083495450408</v>
+        <v>13698.83635454155</v>
       </c>
       <c r="S15">
-        <v>0.01853953414671066</v>
+        <v>0.09030692771486487</v>
       </c>
       <c r="T15">
-        <v>0.01853953414671066</v>
+        <v>0.09030692771486486</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N16">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q16">
-        <v>963.7098864082901</v>
+        <v>522.1346329500279</v>
       </c>
       <c r="R16">
-        <v>8673.388977674611</v>
+        <v>4699.211696550252</v>
       </c>
       <c r="S16">
-        <v>0.04341170800194106</v>
+        <v>0.03097864373396358</v>
       </c>
       <c r="T16">
-        <v>0.04341170800194106</v>
+        <v>0.03097864373396358</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N17">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O17">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P17">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q17">
-        <v>41.97021173790356</v>
+        <v>103.7859717050123</v>
       </c>
       <c r="R17">
-        <v>377.731905641132</v>
+        <v>934.073745345111</v>
       </c>
       <c r="S17">
-        <v>0.00189060899181602</v>
+        <v>0.006157700407397635</v>
       </c>
       <c r="T17">
-        <v>0.00189060899181602</v>
+        <v>0.006157700407397635</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N18">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O18">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P18">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q18">
-        <v>72.11079012345134</v>
+        <v>275.9244216057124</v>
       </c>
       <c r="R18">
-        <v>648.9971111110621</v>
+        <v>2483.319794451412</v>
       </c>
       <c r="S18">
-        <v>0.00324833501116773</v>
+        <v>0.01637080518127862</v>
       </c>
       <c r="T18">
-        <v>0.00324833501116773</v>
+        <v>0.01637080518127862</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N19">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q19">
-        <v>1346.460015036447</v>
+        <v>1406.241592325904</v>
       </c>
       <c r="R19">
-        <v>12118.14013532803</v>
+        <v>12656.17433093313</v>
       </c>
       <c r="S19">
-        <v>0.060653242052855</v>
+        <v>0.08343338009665251</v>
       </c>
       <c r="T19">
-        <v>0.060653242052855</v>
+        <v>0.08343338009665249</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N20">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O20">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P20">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q20">
-        <v>146.095451039788</v>
+        <v>67.47869996336</v>
       </c>
       <c r="R20">
-        <v>1314.859059358092</v>
+        <v>607.3082996702401</v>
       </c>
       <c r="S20">
-        <v>0.006581081246959589</v>
+        <v>0.004003562441329222</v>
       </c>
       <c r="T20">
-        <v>0.006581081246959589</v>
+        <v>0.004003562441329222</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q21">
-        <v>203.089695202664</v>
+        <v>59.52102559801599</v>
       </c>
       <c r="R21">
-        <v>1827.807256823976</v>
+        <v>535.6892303821439</v>
       </c>
       <c r="S21">
-        <v>0.009148469545331642</v>
+        <v>0.003531427586527356</v>
       </c>
       <c r="T21">
-        <v>0.009148469545331644</v>
+        <v>0.003531427586527356</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N22">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q22">
-        <v>475.54973477613</v>
+        <v>20.417931307584</v>
       </c>
       <c r="R22">
-        <v>4279.94761298517</v>
+        <v>183.761381768256</v>
       </c>
       <c r="S22">
-        <v>0.02142182675269926</v>
+        <v>0.001211411348426532</v>
       </c>
       <c r="T22">
-        <v>0.02142182675269926</v>
+        <v>0.001211411348426532</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N23">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O23">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P23">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q23">
-        <v>20.710509814156</v>
+        <v>4.058521896912</v>
       </c>
       <c r="R23">
-        <v>186.394588327404</v>
+        <v>36.526697072208</v>
       </c>
       <c r="S23">
-        <v>0.0009329349188004146</v>
+        <v>0.0002407951819257313</v>
       </c>
       <c r="T23">
-        <v>0.0009329349188004146</v>
+        <v>0.0002407951819257313</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N24">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O24">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P24">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q24">
-        <v>35.583600003846</v>
+        <v>10.789948666304</v>
       </c>
       <c r="R24">
-        <v>320.252400034614</v>
+        <v>97.10953799673599</v>
       </c>
       <c r="S24">
-        <v>0.001602914813691531</v>
+        <v>0.0006401758369343371</v>
       </c>
       <c r="T24">
-        <v>0.001602914813691531</v>
+        <v>0.0006401758369343371</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N25">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q25">
-        <v>664.420602162392</v>
+        <v>54.990690948336</v>
       </c>
       <c r="R25">
-        <v>5979.785419461528</v>
+        <v>494.916218535024</v>
       </c>
       <c r="S25">
-        <v>0.02992978859960307</v>
+        <v>0.003262639396180482</v>
       </c>
       <c r="T25">
-        <v>0.02992978859960307</v>
+        <v>0.003262639396180482</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N26">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O26">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P26">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q26">
-        <v>119.8746322676664</v>
+        <v>182.3802160294722</v>
       </c>
       <c r="R26">
-        <v>1078.871690408998</v>
+        <v>1641.42194426525</v>
       </c>
       <c r="S26">
-        <v>0.005399926478121925</v>
+        <v>0.01082075652514908</v>
       </c>
       <c r="T26">
-        <v>0.005399926478121924</v>
+        <v>0.01082075652514908</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.815932</v>
       </c>
       <c r="O27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q27">
-        <v>166.6397027183382</v>
+        <v>160.8723569475444</v>
       </c>
       <c r="R27">
-        <v>1499.757324465044</v>
+        <v>1447.8512125279</v>
       </c>
       <c r="S27">
-        <v>0.007506526827176205</v>
+        <v>0.009544678935323502</v>
       </c>
       <c r="T27">
-        <v>0.007506526827176205</v>
+        <v>0.009544678935323502</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N28">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q28">
-        <v>390.199346903345</v>
+        <v>55.18521733189999</v>
       </c>
       <c r="R28">
-        <v>3511.794122130105</v>
+        <v>496.6669559871</v>
       </c>
       <c r="S28">
-        <v>0.01757709488012823</v>
+        <v>0.003274180794036506</v>
       </c>
       <c r="T28">
-        <v>0.01757709488012823</v>
+        <v>0.003274180794036506</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N29">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O29">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P29">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q29">
-        <v>16.99344319332511</v>
+        <v>10.96929995274166</v>
       </c>
       <c r="R29">
-        <v>152.940988739926</v>
+        <v>98.723699574675</v>
       </c>
       <c r="S29">
-        <v>0.0007654942677880331</v>
+        <v>0.0006508168847698142</v>
       </c>
       <c r="T29">
-        <v>0.0007654942677880331</v>
+        <v>0.0006508168847698144</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N30">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O30">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P30">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q30">
-        <v>29.19715114236567</v>
+        <v>29.16287909778888</v>
       </c>
       <c r="R30">
-        <v>262.774360281291</v>
+        <v>262.4659118801</v>
       </c>
       <c r="S30">
-        <v>0.001315227972398245</v>
+        <v>0.001730255732554557</v>
       </c>
       <c r="T30">
-        <v>0.001315227972398245</v>
+        <v>0.001730255732554557</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N31">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q31">
-        <v>545.1721787941702</v>
+        <v>148.6278499765583</v>
       </c>
       <c r="R31">
-        <v>4906.549609147532</v>
+        <v>1337.650649789025</v>
       </c>
       <c r="S31">
-        <v>0.02455807060857286</v>
+        <v>0.008818203051107417</v>
       </c>
       <c r="T31">
-        <v>0.02455807060857286</v>
+        <v>0.008818203051107417</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N32">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O32">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P32">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q32">
-        <v>109.7842781651698</v>
+        <v>957.3718560232867</v>
       </c>
       <c r="R32">
-        <v>988.0585034865279</v>
+        <v>8616.34670420958</v>
       </c>
       <c r="S32">
-        <v>0.00494539185923747</v>
+        <v>0.05680159824124781</v>
       </c>
       <c r="T32">
-        <v>0.004945391859237469</v>
+        <v>0.05680159824124781</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.815932</v>
       </c>
       <c r="O33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q33">
-        <v>152.6129351182649</v>
+        <v>844.4702517998052</v>
       </c>
       <c r="R33">
-        <v>1373.516416064384</v>
+        <v>7600.232266198247</v>
       </c>
       <c r="S33">
-        <v>0.006874670759438936</v>
+        <v>0.05010306044368529</v>
       </c>
       <c r="T33">
-        <v>0.006874670759438936</v>
+        <v>0.05010306044368529</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N34">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q34">
-        <v>357.35461982192</v>
+        <v>289.6847864987279</v>
       </c>
       <c r="R34">
-        <v>3216.19157839728</v>
+        <v>2607.163078488552</v>
       </c>
       <c r="S34">
-        <v>0.0160975565651522</v>
+        <v>0.01718721806556026</v>
       </c>
       <c r="T34">
-        <v>0.0160975565651522</v>
+        <v>0.01718721806556026</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N35">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O35">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P35">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q35">
-        <v>15.56303330594844</v>
+        <v>57.58135001515399</v>
       </c>
       <c r="R35">
-        <v>140.067299753536</v>
+        <v>518.2321501363859</v>
       </c>
       <c r="S35">
-        <v>0.0007010593821137597</v>
+        <v>0.003416345163242285</v>
       </c>
       <c r="T35">
-        <v>0.0007010593821137595</v>
+        <v>0.003416345163242286</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N36">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O36">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P36">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q36">
-        <v>26.73950361313067</v>
+        <v>153.0852429976347</v>
       </c>
       <c r="R36">
-        <v>240.655532518176</v>
+        <v>1377.767186978712</v>
       </c>
       <c r="S36">
-        <v>0.001204519678942344</v>
+        <v>0.009082663559313918</v>
       </c>
       <c r="T36">
-        <v>0.001204519678942344</v>
+        <v>0.009082663559313918</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N37">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q37">
-        <v>499.2827339066168</v>
+        <v>780.1949338946619</v>
       </c>
       <c r="R37">
-        <v>4493.544605159552</v>
+        <v>7021.754405051957</v>
       </c>
       <c r="S37">
-        <v>0.02249091408156632</v>
+        <v>0.04628955708915632</v>
       </c>
       <c r="T37">
-        <v>0.02249091408156632</v>
+        <v>0.04628955708915632</v>
       </c>
     </row>
   </sheetData>
